--- a/supply_n_use_tables/data/modified_supply_basic_price_AT_OECD_2015.xlsx
+++ b/supply_n_use_tables/data/modified_supply_basic_price_AT_OECD_2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leidenuniv1-my.sharepoint.com/personal/donatif_vuw_leidenuniv_nl/Documents/1_CML/2_teaching/EEIO/advanced_EEIO_course_notebooks/supply_n_use_tables/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{EAC9AE1A-6D85-4A4F-ABA1-21D37CEAC780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E877AC-C9E9-418E-A43B-AF0A909ED644}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{EAC9AE1A-6D85-4A4F-ABA1-21D37CEAC780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829A2A1D-A2FA-4547-9748-98ADC9B38E84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="3180" windowWidth="15465" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="203">
   <si>
     <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>Activities of extraterritorial organizations and bodies</t>
+  </si>
+  <si>
+    <t>Total supply at basic prices</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2025,18 +2028,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BR15" sqref="BR15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -2045,14 +2048,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="46.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="BX3" s="27"/>
       <c r="BY3" s="28"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2221,7 @@
       <c r="BX4" s="30"/>
       <c r="BY4" s="31"/>
     </row>
-    <row r="5" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2304,7 @@
       <c r="BX5" s="30"/>
       <c r="BY5" s="31"/>
     </row>
-    <row r="6" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="BX6" s="30"/>
       <c r="BY6" s="31"/>
     </row>
-    <row r="7" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2472,7 @@
       <c r="BX7" s="22"/>
       <c r="BY7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -2558,7 +2561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -2653,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2790,7 +2793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="91.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -2799,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>15</v>
@@ -3015,7 +3018,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -3474,7 +3477,7 @@
       </c>
       <c r="BZ13" s="11"/>
     </row>
-    <row r="14" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
@@ -3699,7 +3702,7 @@
         <v>46.058999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
@@ -3924,7 +3927,7 @@
         <v>11.805</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -4151,7 +4154,7 @@
         <v>92.611000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
         <v>25</v>
@@ -4378,7 +4381,7 @@
         <v>4764.1580000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
@@ -4603,7 +4606,7 @@
         <v>2097.1950000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="5" t="s">
@@ -4828,7 +4831,7 @@
         <v>216.24</v>
       </c>
     </row>
-    <row r="20" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="5" t="s">
@@ -5053,7 +5056,7 @@
         <v>198.80799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
@@ -5278,7 +5281,7 @@
         <v>47.326999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="5" t="s">
@@ -5503,7 +5506,7 @@
         <v>5561.8190000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="5" t="s">
@@ -5728,7 +5731,7 @@
         <v>655.423</v>
       </c>
     </row>
-    <row r="24" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="5" t="s">
@@ -5953,7 +5956,7 @@
         <v>553.97400000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="5" t="s">
@@ -6178,7 +6181,7 @@
         <v>336.387</v>
       </c>
     </row>
-    <row r="26" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="5" t="s">
@@ -6403,7 +6406,7 @@
         <v>222.322</v>
       </c>
     </row>
-    <row r="27" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="5" t="s">
@@ -6628,7 +6631,7 @@
         <v>48.298999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="5" t="s">
@@ -6853,7 +6856,7 @@
         <v>292.91500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="5" t="s">
@@ -7078,7 +7081,7 @@
         <v>756.71600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="5" t="s">
@@ -7303,7 +7306,7 @@
         <v>435.334</v>
       </c>
     </row>
-    <row r="31" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="5" t="s">
@@ -7528,7 +7531,7 @@
         <v>193.33500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
@@ -7753,7 +7756,7 @@
         <v>1315.252</v>
       </c>
     </row>
-    <row r="33" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="5" t="s">
@@ -7978,7 +7981,7 @@
         <v>148.96299999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="5" t="s">
@@ -8203,7 +8206,7 @@
         <v>1809.1179999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="5" t="s">
@@ -8428,7 +8431,7 @@
         <v>81.323999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="12" t="s">
         <v>26</v>
@@ -8655,7 +8658,7 @@
         <v>2127.4560000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="16" t="s">
         <v>27</v>
@@ -8882,7 +8885,7 @@
         <v>73.662999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="5" t="s">
@@ -9107,7 +9110,7 @@
         <v>155.78899999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="12" t="s">
         <v>28</v>
@@ -9334,7 +9337,7 @@
         <v>1902.779</v>
       </c>
     </row>
-    <row r="40" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="16" t="s">
         <v>29</v>
@@ -9561,7 +9564,7 @@
         <v>671.09500000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="5" t="s">
@@ -9786,7 +9789,7 @@
         <v>55.262999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="5" t="s">
@@ -10011,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="16" t="s">
         <v>30</v>
@@ -10240,7 +10243,7 @@
         <v>-97.736999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="5" t="s">
@@ -10467,7 +10470,7 @@
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="5" t="s">
@@ -10694,7 +10697,7 @@
         <v>146.221</v>
       </c>
     </row>
-    <row r="46" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="5" t="s">
@@ -10919,7 +10922,7 @@
         <v>162.70099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="5" t="s">
@@ -11144,7 +11147,7 @@
         <v>19.045000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="12" t="s">
         <v>31</v>
@@ -11371,7 +11374,7 @@
         <v>2571.8629999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="16" t="s">
         <v>32</v>
@@ -11598,7 +11601,7 @@
         <v>403.45699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="5" t="s">
@@ -11823,7 +11826,7 @@
         <v>110.636</v>
       </c>
     </row>
-    <row r="51" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="5" t="s">
@@ -12048,7 +12051,7 @@
         <v>537.66399999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="5" t="s">
@@ -12273,7 +12276,7 @@
         <v>411.62299999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="16" t="s">
         <v>33</v>
@@ -12500,7 +12503,7 @@
         <v>30.257999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="5" t="s">
@@ -12727,7 +12730,7 @@
         <v>1184.914</v>
       </c>
     </row>
-    <row r="55" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="5" t="s">
@@ -12952,7 +12955,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="16" t="s">
         <v>34</v>
@@ -13179,7 +13182,7 @@
         <v>85.474000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="5" t="s">
@@ -13404,7 +13407,7 @@
         <v>2287.3110000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="16" t="s">
         <v>35</v>
@@ -13631,7 +13634,7 @@
         <v>624.35</v>
       </c>
     </row>
-    <row r="59" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="5" t="s">
@@ -13856,7 +13859,7 @@
         <v>275.31400000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="5" t="s">
@@ -14081,7 +14084,7 @@
         <v>7.9279999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="5" t="s">
@@ -14306,7 +14309,7 @@
         <v>236.643</v>
       </c>
     </row>
-    <row r="62" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="5" t="s">
@@ -14531,7 +14534,7 @@
         <v>124.277</v>
       </c>
     </row>
-    <row r="63" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="16" t="s">
         <v>36</v>
@@ -14758,7 +14761,7 @@
         <v>412.303</v>
       </c>
     </row>
-    <row r="64" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="5" t="s">
@@ -14983,7 +14986,7 @@
         <v>69.811999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="5" t="s">
@@ -15208,7 +15211,7 @@
         <v>40.526000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="5" t="s">
@@ -15433,7 +15436,7 @@
         <v>387.06400000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="12" t="s">
         <v>37</v>
@@ -15660,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="12" t="s">
         <v>38</v>
@@ -15887,7 +15890,7 @@
         <v>136.625</v>
       </c>
     </row>
-    <row r="69" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="16" t="s">
         <v>39</v>
@@ -16114,7 +16117,7 @@
         <v>105.723</v>
       </c>
     </row>
-    <row r="70" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="5" t="s">
@@ -16339,7 +16342,7 @@
         <v>270.98</v>
       </c>
     </row>
-    <row r="71" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="16" t="s">
         <v>40</v>
@@ -16566,7 +16569,7 @@
         <v>693.10299999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="5" t="s">
@@ -16791,7 +16794,7 @@
         <v>267.90300000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:77" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:77" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="16" t="s">
         <v>41</v>
@@ -17018,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:77" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="5" t="s">
@@ -17243,7 +17246,7 @@
         <v>75.554000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:77" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:77" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="5" t="s">
@@ -17468,7 +17471,7 @@
         <v>419.279</v>
       </c>
     </row>
-    <row r="76" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="12" t="s">
         <v>42</v>
@@ -17695,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="12" t="s">
         <v>43</v>
@@ -17922,12 +17925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>45</v>
       </c>
@@ -18005,7 +18008,7 @@
       <c r="BX79" s="11"/>
       <c r="BY79" s="11"/>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>46</v>
       </c>
@@ -18064,7 +18067,7 @@
     <hyperlink ref="A78" r:id="rId4" display="https://stats-1.oecd.org/index.aspx?DatasetCode=SNA_TABLE30" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>